--- a/public/import/outlet_template.xlsx
+++ b/public/import/outlet_template.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B07F858-5DA1-D049-B626-296B088BC01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="167">
   <si>
     <t>badan_usaha</t>
   </si>
@@ -57,37 +71,475 @@
     <t>latlong</t>
   </si>
   <si>
-    <t>PT.MKLI</t>
-  </si>
-  <si>
-    <t>FASTEV</t>
-  </si>
-  <si>
-    <t>JABAR</t>
-  </si>
-  <si>
-    <t>JABAR1</t>
-  </si>
-  <si>
-    <t>FEV123</t>
-  </si>
-  <si>
-    <t>TESTING</t>
-  </si>
-  <si>
-    <t>Ini adalah dealer testing</t>
-  </si>
-  <si>
-    <t>cirebon</t>
+    <t>CV.TOP</t>
+  </si>
+  <si>
+    <t>REALME</t>
+  </si>
+  <si>
+    <t>BIGKARAWANG</t>
+  </si>
+  <si>
+    <t>IDME009437</t>
+  </si>
+  <si>
+    <t>666 PHONESHOP</t>
+  </si>
+  <si>
+    <t>JL RAYA SOREANG BANHJARAN NO. 438 SOREANG</t>
+  </si>
+  <si>
+    <t>SUKABUMI</t>
   </si>
   <si>
     <t>MAINTAIN</t>
+  </si>
+  <si>
+    <t>KRWASC4</t>
+  </si>
+  <si>
+    <t>DLFC2674</t>
+  </si>
+  <si>
+    <t>ABUELA CELL</t>
+  </si>
+  <si>
+    <t>KP. PASANGGRAHAN RT.003 RW.003, DESA PASANGGRAHAN, KECAMATAN SAGARANTEN</t>
+  </si>
+  <si>
+    <t>DLMC6673</t>
+  </si>
+  <si>
+    <t>AF CELL</t>
+  </si>
+  <si>
+    <t>JL.CIBAREGBEG SAGARANTEN SUKABUMI RT 01 RW 02</t>
+  </si>
+  <si>
+    <t>IDME002993</t>
+  </si>
+  <si>
+    <t>AKA STORE</t>
+  </si>
+  <si>
+    <t>JL NYOMPLONG NO 36 RT02/RW02</t>
+  </si>
+  <si>
+    <t>SUKABUMI 1</t>
+  </si>
+  <si>
+    <t>IDME010679</t>
+  </si>
+  <si>
+    <t>ARIES CELL</t>
+  </si>
+  <si>
+    <t>KP. SINARJAYA RT 08 RW 03 DS. BUNIASIH, KEC. TEGAL  BULEUD, KAB. SUKABUMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PELABUHAN RATU </t>
+  </si>
+  <si>
+    <t>IDME021043</t>
+  </si>
+  <si>
+    <t>ASIA JAYA PKP</t>
+  </si>
+  <si>
+    <t>JLN SURYA KENCANA NO3, CIBADAK, SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME005206</t>
+  </si>
+  <si>
+    <t>ATI CELL</t>
+  </si>
+  <si>
+    <t>KP. CIKEMBANG DESA CIMANGGU RT002 RW. 002 KEC. CIKEMBAR KAB. SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME015404</t>
+  </si>
+  <si>
+    <t>AZMI CELL</t>
+  </si>
+  <si>
+    <t>KP. CIGADONG RT/TW:002/003 - LANGENSARI</t>
+  </si>
+  <si>
+    <t>ID015246</t>
+  </si>
+  <si>
+    <t>BARTER CALVIN CELL</t>
+  </si>
+  <si>
+    <t>JL. BAROS SASAGARAN</t>
+  </si>
+  <si>
+    <t>KAB. SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME001085</t>
+  </si>
+  <si>
+    <t>BLUE CELL</t>
+  </si>
+  <si>
+    <t>JALAN SURYA KENCANA NO.10 CIBADAK, SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME019315</t>
+  </si>
+  <si>
+    <t>BONG PUTRA</t>
+  </si>
+  <si>
+    <t>JL. SILIWANGI CICURUG NO. 111</t>
+  </si>
+  <si>
+    <t>ID015407</t>
+  </si>
+  <si>
+    <t>CAHAYA PHONE SHOP</t>
+  </si>
+  <si>
+    <t>JL SURYA KENCANA BLOK A NO 1 CIBADAK SUKABUMI</t>
+  </si>
+  <si>
+    <t>DLUW1033</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>JL. AHMAD YANI NO. 111 KOTA SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME001901</t>
+  </si>
+  <si>
+    <t>CR STORE</t>
+  </si>
+  <si>
+    <t>JL. JEND SUDIRMAN NO.65</t>
+  </si>
+  <si>
+    <t>IDME007703</t>
+  </si>
+  <si>
+    <t>CS STORE</t>
+  </si>
+  <si>
+    <t>JL MEKARJAYA RT 03 RW 02, KEL SIRNARESMI, KEC GUNUNG GURUH, KAB SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME009111</t>
+  </si>
+  <si>
+    <t>CV GRAHA SIMAS SEJATI</t>
+  </si>
+  <si>
+    <t>JL A YANI NO 235 NO6, CIKOLE, SUKABUMI</t>
+  </si>
+  <si>
+    <t>BT03710</t>
+  </si>
+  <si>
+    <t>DEAN CELL</t>
+  </si>
+  <si>
+    <t>JALAN RAYA CIGADOG DEPAN POS GIRO, SAGARANTEN, SUKABUMI, JAWA BARAT 43181</t>
+  </si>
+  <si>
+    <t>IDME002852</t>
+  </si>
+  <si>
+    <t>DIO CELL</t>
+  </si>
+  <si>
+    <t>JL. RA KOSASIH NO. 238 SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME014124</t>
+  </si>
+  <si>
+    <t>DMS CELL</t>
+  </si>
+  <si>
+    <t>DMS CELL JALAN SILIWANGI NO 32 PALABUHANRATU ( JAWA BARAT )</t>
+  </si>
+  <si>
+    <t>BT03711</t>
+  </si>
+  <si>
+    <t>EMIRATE CELL</t>
+  </si>
+  <si>
+    <t>SIMPANG 3 JALAN BARU KP CIMANGIR</t>
+  </si>
+  <si>
+    <t>IDME012565</t>
+  </si>
+  <si>
+    <t>FARREL CELL</t>
+  </si>
+  <si>
+    <t>JL. SILIWANGI, PELABUHANRATU, KEC. PELABUHAN RATU, KAB. SUKABUMI, JAWA BARAT</t>
+  </si>
+  <si>
+    <t>PELABUHAN RATU</t>
+  </si>
+  <si>
+    <t>IDME006539</t>
+  </si>
+  <si>
+    <t>FITRI CELL</t>
+  </si>
+  <si>
+    <t>JL RAYA BAROS NO 14, SIMPANG 3 SAGARANTEN</t>
+  </si>
+  <si>
+    <t>IDME000863</t>
+  </si>
+  <si>
+    <t>GADGET STORE</t>
+  </si>
+  <si>
+    <t>JALAN PEMUDA NO.126 KEC CITAMIANG, SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME003205</t>
+  </si>
+  <si>
+    <t>GALAXY CELL SUKABUMI</t>
+  </si>
+  <si>
+    <t>JL. JENDRAL AHMAD YANI NO.196</t>
+  </si>
+  <si>
+    <t>DLDD0248</t>
+  </si>
+  <si>
+    <t>GM CELL SUKABUMI</t>
+  </si>
+  <si>
+    <t>JL.MUHAMMAD AMIR KM.12,PARUNGKUDA BOJONGGENTENG</t>
+  </si>
+  <si>
+    <t>IDME015229</t>
+  </si>
+  <si>
+    <t>GREEN CELL</t>
+  </si>
+  <si>
+    <t>JL. CIBARAJA NO 29</t>
+  </si>
+  <si>
+    <t>DLEG7049</t>
+  </si>
+  <si>
+    <t>JESSICA CELL</t>
+  </si>
+  <si>
+    <t>JL. SILIWANGI NO. 57 PALABUHAN RATU, KAB. SUKABUMI, JAWA BARAT</t>
+  </si>
+  <si>
+    <t>IDME005671</t>
+  </si>
+  <si>
+    <t>K CELL</t>
+  </si>
+  <si>
+    <t>JL CIBATU NO 275, KEL CISAAT, KEC CISAAT, KAB SUKABUMI</t>
+  </si>
+  <si>
+    <t>ID015223</t>
+  </si>
+  <si>
+    <t>LEO CELL</t>
+  </si>
+  <si>
+    <t>JL. PELABUHAN II KM 12 - PANGLESERAN</t>
+  </si>
+  <si>
+    <t>KAB.SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME006617</t>
+  </si>
+  <si>
+    <t>LUTHVI STORE</t>
+  </si>
+  <si>
+    <t>JL RAYA MUARA PURABAYA, KEL PURABAYA, KEC PURABAYA, SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME009778</t>
+  </si>
+  <si>
+    <t>MALL CELL</t>
+  </si>
+  <si>
+    <t>JL MERDEKA PANGKALAN RAYA SANTIONG NO 20 RT 03 RW 07, KEL CIPANENGAH, KEC LEMBUR SITU</t>
+  </si>
+  <si>
+    <t>IDME017992</t>
+  </si>
+  <si>
+    <t>MUGI CELL</t>
+  </si>
+  <si>
+    <t>JL. SURADE TENGAH RT . 03 / 01 KEC. SURADE KAB SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME011176</t>
+  </si>
+  <si>
+    <t>MULTINET</t>
+  </si>
+  <si>
+    <t>JL. SILIWANGI NO. 21 PELABUHAN RATU, KEC. PELABUHAN</t>
+  </si>
+  <si>
+    <t>BT07723</t>
+  </si>
+  <si>
+    <t>PS STORE SUKABUMI</t>
+  </si>
+  <si>
+    <t>JL. ARIEF RAHMAN HAKIM NO.8 BENTENG</t>
+  </si>
+  <si>
+    <t>IDME005670</t>
+  </si>
+  <si>
+    <t>PURNAMA CELL</t>
+  </si>
+  <si>
+    <t>PURNAMA CELL, JL CINAGEN RT 06 RW02, DESA NAGRAKSA</t>
+  </si>
+  <si>
+    <t>IDME003505</t>
+  </si>
+  <si>
+    <t>Q-TELL</t>
+  </si>
+  <si>
+    <t>JL RE MARTADINATA NO 32, SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME019118</t>
+  </si>
+  <si>
+    <t>RIAN CELL</t>
+  </si>
+  <si>
+    <t>BOJONG LOPANG RT/RW 05/25 JAMPANG TENGAH, KAB. SUKABUMI JAWABARAT</t>
+  </si>
+  <si>
+    <t>BT06944</t>
+  </si>
+  <si>
+    <t>RINDU ALIYA CELL 2</t>
+  </si>
+  <si>
+    <t>JL. RAYA CISOLOK CIMAJA, KARANG PAPAK KEC.PELABUHAN RATU</t>
+  </si>
+  <si>
+    <t>BT07031</t>
+  </si>
+  <si>
+    <t>RJ CELL UJUNG GENTENG</t>
+  </si>
+  <si>
+    <t>KP CIPAKU JALAN RAYA UJUNG GENTENG RT 08/02</t>
+  </si>
+  <si>
+    <t>DLBC8264</t>
+  </si>
+  <si>
+    <t>RNY COMPUTER</t>
+  </si>
+  <si>
+    <t>JL A.YANI NO 216</t>
+  </si>
+  <si>
+    <t>IDME007368</t>
+  </si>
+  <si>
+    <t>SAHABAT ACC</t>
+  </si>
+  <si>
+    <t>JL RAYA SILIWANGI STATSION PARUNGKUDA, KEC PARUNGKUDA, KAB SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME019311</t>
+  </si>
+  <si>
+    <t>SAHABAT JAYA CELL</t>
+  </si>
+  <si>
+    <t>JL. RAYA SILIWANGI CI CURUG SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME005204</t>
+  </si>
+  <si>
+    <t>SJU CELL</t>
+  </si>
+  <si>
+    <t>JL RAYA TIPAR CIBOLANGKALER CISAAT SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME003888</t>
+  </si>
+  <si>
+    <t>SRI CELL</t>
+  </si>
+  <si>
+    <t>CIPANENGAH RT 02/08, CIPANENGAH, LEMBUR SITU, SUKABUMI</t>
+  </si>
+  <si>
+    <t>BT06930</t>
+  </si>
+  <si>
+    <t>THE CELL</t>
+  </si>
+  <si>
+    <t>JL. CARINGIN - CIKUKULU NO. 7 RT.14/04 CISANDE</t>
+  </si>
+  <si>
+    <t>IDME009241</t>
+  </si>
+  <si>
+    <t>TUWU CELL</t>
+  </si>
+  <si>
+    <t>JL PASAR PURABAYA KM 36 RT 04 RW 01, SUKABUMI</t>
+  </si>
+  <si>
+    <t>IDME011904</t>
+  </si>
+  <si>
+    <t>UNITY CELL</t>
+  </si>
+  <si>
+    <t>JL. SILIWANGI NO. 60 CICURUG, KEC. CICURUG, KAB. SUKABUMI, JAWA BARAT</t>
+  </si>
+  <si>
+    <t>IDME012846</t>
+  </si>
+  <si>
+    <t>ZHAFIRA CELL</t>
+  </si>
+  <si>
+    <t>JL. PASAR PALABUHANRATU NO.7, PELABUHANRATU, KEC. PELABUHAN RATU, KAB. SUKABUMI, JAWA BARAT (DEPAN SPBU PALABUHANRATU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,8 +567,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,84 +873,1557 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D2" sqref="D2:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="108.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>